--- a/reg/informalidsd.xlsx
+++ b/reg/informalidsd.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">2.566***</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.880</t>
+    <t xml:space="preserve">-0.880**</t>
   </si>
   <si>
     <t xml:space="preserve">(0.328)</t>
@@ -83,22 +83,7 @@
     <t xml:space="preserve">(0.592)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.659)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.098**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.056)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.036)</t>
+    <t xml:space="preserve">(0.286)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -131,7 +116,7 @@
     <t xml:space="preserve">R2 Within</t>
   </si>
   <si>
-    <t xml:space="preserve">0.032</t>
+    <t xml:space="preserve">0.028</t>
   </si>
   <si>
     <t xml:space="preserve">0.016</t>
@@ -583,117 +568,71 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
         <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/reg/informalidsd.xlsx
+++ b/reg/informalidsd.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -44,46 +44,49 @@
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">4.402***</t>
+    <t xml:space="preserve">-0.101*</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">6.288***</t>
+    <t xml:space="preserve">-0.040</t>
   </si>
   <si>
     <t xml:space="preserve">std.error</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.357)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.003)</t>
+    <t xml:space="preserve">(0.049)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.323)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD</t>
   </si>
   <si>
-    <t xml:space="preserve">3.736***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.250*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.566***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.880**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.328)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.592)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.286)</t>
+    <t xml:space="preserve">0.083+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.045)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.067)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.297)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.051)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -95,31 +98,25 @@
     <t xml:space="preserve">594</t>
   </si>
   <si>
-    <t xml:space="preserve">605</t>
+    <t xml:space="preserve">595</t>
   </si>
   <si>
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.659</t>
+    <t xml:space="preserve">0.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
   </si>
   <si>
-    <t xml:space="preserve">0.028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.016</t>
+    <t xml:space="preserve">0.004</t>
   </si>
 </sst>
 </file>
@@ -560,53 +557,53 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -614,7 +611,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -632,7 +629,7 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/reg/informalidsd.xlsx
+++ b/reg/informalidsd.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -44,49 +44,46 @@
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.101*</t>
+    <t xml:space="preserve">4.402***</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">-0.040</t>
+    <t xml:space="preserve">6.288***</t>
   </si>
   <si>
     <t xml:space="preserve">std.error</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.049)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.323)</t>
+    <t xml:space="preserve">(0.357)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.003)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD</t>
   </si>
   <si>
-    <t xml:space="preserve">0.083+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.045)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.067)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.297)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.051)</t>
+    <t xml:space="preserve">3.736***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.250*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.566***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.880**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.328)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.592)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.286)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -98,25 +95,31 @@
     <t xml:space="preserve">594</t>
   </si>
   <si>
-    <t xml:space="preserve">595</t>
+    <t xml:space="preserve">605</t>
   </si>
   <si>
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000</t>
+    <t xml:space="preserve">0.180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.659</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
   </si>
   <si>
-    <t xml:space="preserve">0.004</t>
+    <t xml:space="preserve">0.028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.016</t>
   </si>
 </sst>
 </file>
@@ -557,53 +560,53 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -611,7 +614,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -629,7 +632,7 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
